--- a/data/pca/factorExposure/factorExposure_2015-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02047138668528496</v>
+        <v>0.01191420868984088</v>
       </c>
       <c r="C2">
-        <v>0.02140773003896148</v>
+        <v>-0.05088991483843601</v>
       </c>
       <c r="D2">
-        <v>-0.1062140016409487</v>
+        <v>0.1274528869561747</v>
       </c>
       <c r="E2">
-        <v>-0.01605954303879772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02068963479679357</v>
+      </c>
+      <c r="F2">
+        <v>0.03339674680648943</v>
+      </c>
+      <c r="G2">
+        <v>-0.1183088817892875</v>
+      </c>
+      <c r="H2">
+        <v>0.08487531766443497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0432422409658892</v>
+        <v>0.01656863087387297</v>
       </c>
       <c r="C4">
-        <v>0.07137158705643937</v>
+        <v>-0.1072924441362726</v>
       </c>
       <c r="D4">
-        <v>-0.1144433756607992</v>
+        <v>0.130458648387264</v>
       </c>
       <c r="E4">
-        <v>-0.09400737306809041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01087770769465052</v>
+      </c>
+      <c r="F4">
+        <v>0.09277911940305088</v>
+      </c>
+      <c r="G4">
+        <v>-0.002833376392736596</v>
+      </c>
+      <c r="H4">
+        <v>0.05076619401758354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02199449791341097</v>
+        <v>0.02703998147279014</v>
       </c>
       <c r="C6">
-        <v>0.01188261509212992</v>
+        <v>-0.03683655076628864</v>
       </c>
       <c r="D6">
-        <v>-0.1345187457211284</v>
+        <v>0.1224880711900271</v>
       </c>
       <c r="E6">
-        <v>-0.05237028671456141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06150919285045897</v>
+      </c>
+      <c r="F6">
+        <v>0.04671727888568573</v>
+      </c>
+      <c r="G6">
+        <v>0.01189790806954459</v>
+      </c>
+      <c r="H6">
+        <v>0.04455525239500741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002144997771295737</v>
+        <v>0.008316667147012458</v>
       </c>
       <c r="C7">
-        <v>0.02285685798285228</v>
+        <v>-0.03786775808128173</v>
       </c>
       <c r="D7">
-        <v>-0.1097149366032136</v>
+        <v>0.09562192814224087</v>
       </c>
       <c r="E7">
-        <v>-0.01639788411781645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0545570742675546</v>
+      </c>
+      <c r="F7">
+        <v>0.009398419353497557</v>
+      </c>
+      <c r="G7">
+        <v>0.01780771379372171</v>
+      </c>
+      <c r="H7">
+        <v>0.07524777534317943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.001650793462873023</v>
+        <v>-0.008358869353989894</v>
       </c>
       <c r="C8">
-        <v>0.025942515554606</v>
+        <v>-0.03623236126806144</v>
       </c>
       <c r="D8">
-        <v>-0.07881894739651579</v>
+        <v>0.07463463318116463</v>
       </c>
       <c r="E8">
-        <v>-0.03198110025549384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03732474545994626</v>
+      </c>
+      <c r="F8">
+        <v>0.05038413648699518</v>
+      </c>
+      <c r="G8">
+        <v>-0.05917031287655319</v>
+      </c>
+      <c r="H8">
+        <v>0.01536320317382424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03497920062383267</v>
+        <v>0.01247387123586443</v>
       </c>
       <c r="C9">
-        <v>0.06036561731820608</v>
+        <v>-0.08827327760917746</v>
       </c>
       <c r="D9">
-        <v>-0.1189905849089455</v>
+        <v>0.1122204548951005</v>
       </c>
       <c r="E9">
-        <v>-0.07806805662921899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01273554416395127</v>
+      </c>
+      <c r="F9">
+        <v>0.06192760112558524</v>
+      </c>
+      <c r="G9">
+        <v>0.01978951878857469</v>
+      </c>
+      <c r="H9">
+        <v>0.05953540491530215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.177618638624352</v>
+        <v>0.2425566866486339</v>
       </c>
       <c r="C10">
-        <v>-0.1676984368687773</v>
+        <v>0.08868277000525494</v>
       </c>
       <c r="D10">
-        <v>0.004411404078818635</v>
+        <v>-0.003520285544521167</v>
       </c>
       <c r="E10">
-        <v>-0.04628689843199621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01086600561408169</v>
+      </c>
+      <c r="F10">
+        <v>0.04321192145062907</v>
+      </c>
+      <c r="G10">
+        <v>0.001030217828914866</v>
+      </c>
+      <c r="H10">
+        <v>-0.03354617780147907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01933518721135778</v>
+        <v>0.009797331650893241</v>
       </c>
       <c r="C11">
-        <v>0.04179268948182763</v>
+        <v>-0.05889862622467577</v>
       </c>
       <c r="D11">
-        <v>-0.04640694790024578</v>
+        <v>0.04056567729053695</v>
       </c>
       <c r="E11">
-        <v>0.0148612384602471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02046521789926561</v>
+      </c>
+      <c r="F11">
+        <v>-0.01390701211315433</v>
+      </c>
+      <c r="G11">
+        <v>0.0161653752595304</v>
+      </c>
+      <c r="H11">
+        <v>0.05029885040475199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01907050546381753</v>
+        <v>0.009880195955114603</v>
       </c>
       <c r="C12">
-        <v>0.04154383405293773</v>
+        <v>-0.05096076915221545</v>
       </c>
       <c r="D12">
-        <v>-0.05963272978984074</v>
+        <v>0.04493880600987751</v>
       </c>
       <c r="E12">
-        <v>0.003634015080574106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01566235234271859</v>
+      </c>
+      <c r="F12">
+        <v>-0.01702336442476182</v>
+      </c>
+      <c r="G12">
+        <v>0.03400403139556236</v>
+      </c>
+      <c r="H12">
+        <v>0.06510718391826703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.003188752407411173</v>
+        <v>-0.003918430541785633</v>
       </c>
       <c r="C13">
-        <v>0.02301504568277202</v>
+        <v>-0.04977434332956135</v>
       </c>
       <c r="D13">
-        <v>-0.1343919105563628</v>
+        <v>0.147080694694653</v>
       </c>
       <c r="E13">
-        <v>-0.04822868454467058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04057734171578457</v>
+      </c>
+      <c r="F13">
+        <v>0.03657560640487841</v>
+      </c>
+      <c r="G13">
+        <v>-0.01237361642103674</v>
+      </c>
+      <c r="H13">
+        <v>0.07936066851140987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005417168377216911</v>
+        <v>0.00123426092153709</v>
       </c>
       <c r="C14">
-        <v>0.01567203377521824</v>
+        <v>-0.03215170458766809</v>
       </c>
       <c r="D14">
-        <v>-0.09239267868682163</v>
+        <v>0.09965378695246703</v>
       </c>
       <c r="E14">
-        <v>-0.0212572733697308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05176962662388382</v>
+      </c>
+      <c r="F14">
+        <v>0.03719454758173325</v>
+      </c>
+      <c r="G14">
+        <v>0.001707832057528084</v>
+      </c>
+      <c r="H14">
+        <v>0.1377049658403323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002819508644277592</v>
+        <v>-0.003047584152936181</v>
       </c>
       <c r="C15">
-        <v>0.01053988950713774</v>
+        <v>-0.02823952430766291</v>
       </c>
       <c r="D15">
-        <v>-0.03344427469094904</v>
+        <v>0.0616483720191604</v>
       </c>
       <c r="E15">
-        <v>-5.349299474178998e-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01179852472459652</v>
+      </c>
+      <c r="F15">
+        <v>0.008409593240719618</v>
+      </c>
+      <c r="G15">
+        <v>-0.01235852208190238</v>
+      </c>
+      <c r="H15">
+        <v>0.04417209339426377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01820207360541334</v>
+        <v>0.009118305793204063</v>
       </c>
       <c r="C16">
-        <v>0.03755186582417024</v>
+        <v>-0.05130738414015437</v>
       </c>
       <c r="D16">
-        <v>-0.05351417735161251</v>
+        <v>0.04317427537773843</v>
       </c>
       <c r="E16">
-        <v>0.00447966897432233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02282200136830822</v>
+      </c>
+      <c r="F16">
+        <v>-0.008692868545907164</v>
+      </c>
+      <c r="G16">
+        <v>0.02602577997769885</v>
+      </c>
+      <c r="H16">
+        <v>0.04618678626616939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003081947888072365</v>
+        <v>-0.0006648133482486849</v>
       </c>
       <c r="C19">
-        <v>0.01906885906393005</v>
+        <v>-0.01745633073405054</v>
       </c>
       <c r="D19">
-        <v>-0.09056868001640989</v>
+        <v>0.05927486084233329</v>
       </c>
       <c r="E19">
-        <v>-0.04619453038733375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01235774337184398</v>
+      </c>
+      <c r="F19">
+        <v>0.01569627951768817</v>
+      </c>
+      <c r="G19">
+        <v>-0.01143102382890752</v>
+      </c>
+      <c r="H19">
+        <v>0.05499787705419972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003043264202854851</v>
+        <v>0.004572955931991595</v>
       </c>
       <c r="C20">
-        <v>0.02471400900329335</v>
+        <v>-0.0428633758064472</v>
       </c>
       <c r="D20">
-        <v>-0.07813470211924538</v>
+        <v>0.08749213750799073</v>
       </c>
       <c r="E20">
-        <v>-0.03838465509786797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02377703365308456</v>
+      </c>
+      <c r="F20">
+        <v>0.02706904282945585</v>
+      </c>
+      <c r="G20">
+        <v>0.01660459816465949</v>
+      </c>
+      <c r="H20">
+        <v>0.05600576257473212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005866278340707441</v>
+        <v>0.003000333138644913</v>
       </c>
       <c r="C21">
-        <v>0.02632539599772877</v>
+        <v>-0.04671853672193097</v>
       </c>
       <c r="D21">
-        <v>-0.150901378589637</v>
+        <v>0.1298172582636708</v>
       </c>
       <c r="E21">
-        <v>-0.09304046620200707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03164509559020489</v>
+      </c>
+      <c r="F21">
+        <v>0.1009876447297286</v>
+      </c>
+      <c r="G21">
+        <v>-0.01068793434885745</v>
+      </c>
+      <c r="H21">
+        <v>0.2020986042200386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0005881974174077726</v>
+        <v>-0.01441093084432303</v>
       </c>
       <c r="C22">
-        <v>0.06486011842856879</v>
+        <v>-0.08800351839526546</v>
       </c>
       <c r="D22">
-        <v>-0.2601996200263422</v>
+        <v>0.2625959161019787</v>
       </c>
       <c r="E22">
-        <v>-0.01663395978999387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06007211957628158</v>
+      </c>
+      <c r="F22">
+        <v>0.009527209428424046</v>
+      </c>
+      <c r="G22">
+        <v>-0.4054693640880946</v>
+      </c>
+      <c r="H22">
+        <v>-0.3827894502626775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0003019479542471686</v>
+        <v>-0.0112064425108924</v>
       </c>
       <c r="C23">
-        <v>0.06533072496569112</v>
+        <v>-0.0897574710433528</v>
       </c>
       <c r="D23">
-        <v>-0.2596829522203786</v>
+        <v>0.2652941931469693</v>
       </c>
       <c r="E23">
-        <v>-0.01687902377328417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05524617013592598</v>
+      </c>
+      <c r="F23">
+        <v>0.01285444565238258</v>
+      </c>
+      <c r="G23">
+        <v>-0.3929213997357489</v>
+      </c>
+      <c r="H23">
+        <v>-0.3675823663336547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02360200470714107</v>
+        <v>0.00963048092073099</v>
       </c>
       <c r="C24">
-        <v>0.05754823371569735</v>
+        <v>-0.06742223035301323</v>
       </c>
       <c r="D24">
-        <v>-0.06225345673150298</v>
+        <v>0.04591618284964453</v>
       </c>
       <c r="E24">
-        <v>0.001613720922121777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02927548924618072</v>
+      </c>
+      <c r="F24">
+        <v>-0.005029386050826941</v>
+      </c>
+      <c r="G24">
+        <v>0.01503814310962739</v>
+      </c>
+      <c r="H24">
+        <v>0.0709181083763403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02436846512814642</v>
+        <v>0.01384869917887854</v>
       </c>
       <c r="C25">
-        <v>0.04875713984523853</v>
+        <v>-0.06187290728320462</v>
       </c>
       <c r="D25">
-        <v>-0.05804380238572437</v>
+        <v>0.04909841765375381</v>
       </c>
       <c r="E25">
-        <v>-0.005179599356873646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01471956006332988</v>
+      </c>
+      <c r="F25">
+        <v>-0.005589015605043187</v>
+      </c>
+      <c r="G25">
+        <v>0.01714727913157793</v>
+      </c>
+      <c r="H25">
+        <v>0.03731474068681791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006439637980556398</v>
+        <v>0.0139867609933851</v>
       </c>
       <c r="C26">
-        <v>0.01457557625622901</v>
+        <v>-0.02903011049564343</v>
       </c>
       <c r="D26">
-        <v>-0.08281400584899597</v>
+        <v>0.06881951308437739</v>
       </c>
       <c r="E26">
-        <v>-0.0279003214114179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04475411486258508</v>
+      </c>
+      <c r="F26">
+        <v>0.04554999623770208</v>
+      </c>
+      <c r="G26">
+        <v>0.01378079326432093</v>
+      </c>
+      <c r="H26">
+        <v>0.1047656158307532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2623621807132179</v>
+        <v>0.3204366508715738</v>
       </c>
       <c r="C28">
-        <v>-0.1927819486323353</v>
+        <v>0.08752505280397213</v>
       </c>
       <c r="D28">
-        <v>-0.01080895389052907</v>
+        <v>-0.01716937155934319</v>
       </c>
       <c r="E28">
-        <v>-0.05523582523621869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04981331834807981</v>
+      </c>
+      <c r="F28">
+        <v>0.04560670294354921</v>
+      </c>
+      <c r="G28">
+        <v>-0.05358689928621201</v>
+      </c>
+      <c r="H28">
+        <v>-0.00422447730304202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.00195500028465876</v>
+        <v>0.0004576058583135104</v>
       </c>
       <c r="C29">
-        <v>0.01998398303727622</v>
+        <v>-0.03804699019474669</v>
       </c>
       <c r="D29">
-        <v>-0.09513172575475232</v>
+        <v>0.1041370809141056</v>
       </c>
       <c r="E29">
-        <v>-0.02975257581987993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05917056566828915</v>
+      </c>
+      <c r="F29">
+        <v>0.04259887957651556</v>
+      </c>
+      <c r="G29">
+        <v>0.01629335740096251</v>
+      </c>
+      <c r="H29">
+        <v>0.1450054525420042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02179971804500684</v>
+        <v>0.01257317195169477</v>
       </c>
       <c r="C30">
-        <v>0.06124278094216553</v>
+        <v>-0.08997542683176588</v>
       </c>
       <c r="D30">
-        <v>-0.1543248888686982</v>
+        <v>0.1401674238981394</v>
       </c>
       <c r="E30">
-        <v>-0.03269419818377762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05580444959128951</v>
+      </c>
+      <c r="F30">
+        <v>0.02603556634810813</v>
+      </c>
+      <c r="G30">
+        <v>-0.01819589786338777</v>
+      </c>
+      <c r="H30">
+        <v>0.04800296011688174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03619072168407001</v>
+        <v>0.007721724829669169</v>
       </c>
       <c r="C31">
-        <v>0.08498583614716121</v>
+        <v>-0.09526935993195443</v>
       </c>
       <c r="D31">
-        <v>-0.06671837391351501</v>
+        <v>0.03956859854380575</v>
       </c>
       <c r="E31">
-        <v>-0.01903992505272438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01992871713206997</v>
+      </c>
+      <c r="F31">
+        <v>0.01476750442766831</v>
+      </c>
+      <c r="G31">
+        <v>0.00584440617376365</v>
+      </c>
+      <c r="H31">
+        <v>0.04983354777705865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01500097116051162</v>
+        <v>0.008017020282260305</v>
       </c>
       <c r="C32">
-        <v>0.0344099092957472</v>
+        <v>-0.04849457527190237</v>
       </c>
       <c r="D32">
-        <v>-0.07100794134820808</v>
+        <v>0.09289306041898543</v>
       </c>
       <c r="E32">
-        <v>-0.06240533898761908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.001606435445436988</v>
+      </c>
+      <c r="F32">
+        <v>0.04961284308283212</v>
+      </c>
+      <c r="G32">
+        <v>-0.01150451794161362</v>
+      </c>
+      <c r="H32">
+        <v>0.04433058294906246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008581159431321974</v>
+        <v>0.004730287691349817</v>
       </c>
       <c r="C33">
-        <v>0.04127443120232198</v>
+        <v>-0.06175079219891846</v>
       </c>
       <c r="D33">
-        <v>-0.1292715515997394</v>
+        <v>0.1198520693291118</v>
       </c>
       <c r="E33">
-        <v>-0.04807907788375614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02917415724231816</v>
+      </c>
+      <c r="F33">
+        <v>0.02614396148544932</v>
+      </c>
+      <c r="G33">
+        <v>0.008336202904564704</v>
+      </c>
+      <c r="H33">
+        <v>0.06344281406863019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02072960003598171</v>
+        <v>0.007276795909931272</v>
       </c>
       <c r="C34">
-        <v>0.05931374271922064</v>
+        <v>-0.06227650809514453</v>
       </c>
       <c r="D34">
-        <v>-0.05502216993668778</v>
+        <v>0.02661732437989985</v>
       </c>
       <c r="E34">
-        <v>0.04441404795201914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02939819048396991</v>
+      </c>
+      <c r="F34">
+        <v>-0.04012685144098234</v>
+      </c>
+      <c r="G34">
+        <v>0.01761862200951096</v>
+      </c>
+      <c r="H34">
+        <v>0.052135245997127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002315659711966706</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01188581921315848</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03369095289071591</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004301991082301955</v>
+      </c>
+      <c r="F35">
+        <v>0.01874458988620997</v>
+      </c>
+      <c r="G35">
+        <v>0.009065508664233085</v>
+      </c>
+      <c r="H35">
+        <v>0.05578939528335465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006634155429821884</v>
+        <v>0.01115152993061959</v>
       </c>
       <c r="C36">
-        <v>0.005925900395301251</v>
+        <v>-0.02274032000512416</v>
       </c>
       <c r="D36">
-        <v>-0.08091242678644728</v>
+        <v>0.07507015515019935</v>
       </c>
       <c r="E36">
-        <v>-0.05155694242934467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02872075208403608</v>
+      </c>
+      <c r="F36">
+        <v>0.05041120584739791</v>
+      </c>
+      <c r="G36">
+        <v>0.004993266839308454</v>
+      </c>
+      <c r="H36">
+        <v>0.06760747689467689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006156778804782081</v>
+        <v>0.01132061268917772</v>
       </c>
       <c r="C38">
-        <v>0.006853412622940562</v>
+        <v>-0.02573061800721419</v>
       </c>
       <c r="D38">
-        <v>-0.08536067090389017</v>
+        <v>0.08564657597032622</v>
       </c>
       <c r="E38">
-        <v>-0.012063909105749</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00591701818243535</v>
+      </c>
+      <c r="F38">
+        <v>0.002219045376280468</v>
+      </c>
+      <c r="G38">
+        <v>-0.0174342739421352</v>
+      </c>
+      <c r="H38">
+        <v>0.06984031659847519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01531515658518264</v>
+        <v>0.003039727510277955</v>
       </c>
       <c r="C39">
-        <v>0.05877766602101323</v>
+        <v>-0.07831715318323502</v>
       </c>
       <c r="D39">
-        <v>-0.1114142557026165</v>
+        <v>0.08936045003213851</v>
       </c>
       <c r="E39">
-        <v>0.005032529382902195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05277807514040894</v>
+      </c>
+      <c r="F39">
+        <v>-0.006116338182391116</v>
+      </c>
+      <c r="G39">
+        <v>0.02339509240047231</v>
+      </c>
+      <c r="H39">
+        <v>0.1007087303489866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01490434439552954</v>
+        <v>0.01228838344991932</v>
       </c>
       <c r="C40">
-        <v>0.02240090432392122</v>
+        <v>-0.03875546845876556</v>
       </c>
       <c r="D40">
-        <v>-0.1132713904615116</v>
+        <v>0.09752662606451888</v>
       </c>
       <c r="E40">
-        <v>-0.001444726139904431</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.03955766896125035</v>
+      </c>
+      <c r="F40">
+        <v>-0.008579488437313319</v>
+      </c>
+      <c r="G40">
+        <v>-0.06099637704281684</v>
+      </c>
+      <c r="H40">
+        <v>0.1126692487672883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01000423630763152</v>
+        <v>0.01510227629216608</v>
       </c>
       <c r="C41">
-        <v>0.003861346833337931</v>
+        <v>-0.019750211921665</v>
       </c>
       <c r="D41">
-        <v>-0.03665463542436474</v>
+        <v>0.04455033120238445</v>
       </c>
       <c r="E41">
-        <v>-0.02967758698958318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.004720523104177627</v>
+      </c>
+      <c r="F41">
+        <v>0.02478131803516267</v>
+      </c>
+      <c r="G41">
+        <v>-0.0002051969437633672</v>
+      </c>
+      <c r="H41">
+        <v>0.04612514028348439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001328746809959176</v>
+        <v>0.007798032706337335</v>
       </c>
       <c r="C43">
-        <v>0.003543227738804066</v>
+        <v>-0.0161964737586643</v>
       </c>
       <c r="D43">
-        <v>-0.05158584179597333</v>
+        <v>0.05217377453783939</v>
       </c>
       <c r="E43">
-        <v>-0.02387268060917825</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01186157398045144</v>
+      </c>
+      <c r="F43">
+        <v>0.02165690897539607</v>
+      </c>
+      <c r="G43">
+        <v>-0.00149304075544178</v>
+      </c>
+      <c r="H43">
+        <v>0.05672922031266467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01750931222837928</v>
+        <v>0.01136969389427753</v>
       </c>
       <c r="C44">
-        <v>0.02531545353663126</v>
+        <v>-0.05010784523321792</v>
       </c>
       <c r="D44">
-        <v>-0.08815926698992545</v>
+        <v>0.1016489375744208</v>
       </c>
       <c r="E44">
-        <v>-0.05223017732152568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0359302697145947</v>
+      </c>
+      <c r="F44">
+        <v>0.03645621884304522</v>
+      </c>
+      <c r="G44">
+        <v>-0.02882136362374461</v>
+      </c>
+      <c r="H44">
+        <v>0.05323240104865814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00590542280605859</v>
+        <v>-0.001089431840571345</v>
       </c>
       <c r="C46">
-        <v>0.02891439038165198</v>
+        <v>-0.04262298382217563</v>
       </c>
       <c r="D46">
-        <v>-0.0829675420324946</v>
+        <v>0.07166843516488328</v>
       </c>
       <c r="E46">
-        <v>-0.02330095274953482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04352053837551904</v>
+      </c>
+      <c r="F46">
+        <v>0.03401340559999299</v>
+      </c>
+      <c r="G46">
+        <v>-0.001938776918690534</v>
+      </c>
+      <c r="H46">
+        <v>0.1328604828351756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07716114522302624</v>
+        <v>0.03029205067241208</v>
       </c>
       <c r="C47">
-        <v>0.1084700814625187</v>
+        <v>-0.1279910773423408</v>
       </c>
       <c r="D47">
-        <v>-0.05547506464317181</v>
+        <v>0.02387195065391716</v>
       </c>
       <c r="E47">
-        <v>-0.03357658519357164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008803936359616561</v>
+      </c>
+      <c r="F47">
+        <v>-0.002709903172867065</v>
+      </c>
+      <c r="G47">
+        <v>0.04778290515928276</v>
+      </c>
+      <c r="H47">
+        <v>0.05922693427378361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.008332553350874761</v>
+        <v>0.0125854495925398</v>
       </c>
       <c r="C48">
-        <v>0.01655492519269051</v>
+        <v>-0.03363721858974017</v>
       </c>
       <c r="D48">
-        <v>-0.08082622895575925</v>
+        <v>0.07842209736559266</v>
       </c>
       <c r="E48">
-        <v>-0.05876001631607099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02262933426229814</v>
+      </c>
+      <c r="F48">
+        <v>0.05886035366050895</v>
+      </c>
+      <c r="G48">
+        <v>0.004208117334844286</v>
+      </c>
+      <c r="H48">
+        <v>0.109679181514735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03345885780982887</v>
+        <v>0.01180684629904129</v>
       </c>
       <c r="C50">
-        <v>0.05836854182395282</v>
+        <v>-0.07640433801309499</v>
       </c>
       <c r="D50">
-        <v>-0.0618515361709422</v>
+        <v>0.04849350822649136</v>
       </c>
       <c r="E50">
-        <v>-0.01233523124649249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01385291586703212</v>
+      </c>
+      <c r="F50">
+        <v>0.008251989007904945</v>
+      </c>
+      <c r="G50">
+        <v>-0.003607260838583101</v>
+      </c>
+      <c r="H50">
+        <v>0.03791212282878378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002739563509637492</v>
+        <v>-0.001445642282948075</v>
       </c>
       <c r="C51">
-        <v>0.005098236324488983</v>
+        <v>-0.01747049350964396</v>
       </c>
       <c r="D51">
-        <v>-0.05427526782116443</v>
+        <v>0.05580549424192956</v>
       </c>
       <c r="E51">
-        <v>-0.01170386452734357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03741684031469435</v>
+      </c>
+      <c r="F51">
+        <v>0.0407368911849349</v>
+      </c>
+      <c r="G51">
+        <v>-0.02071580253817986</v>
+      </c>
+      <c r="H51">
+        <v>0.05338346433746808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.106028493680187</v>
+        <v>0.0516247248231395</v>
       </c>
       <c r="C53">
-        <v>0.1269356650473998</v>
+        <v>-0.1577849492558848</v>
       </c>
       <c r="D53">
-        <v>-0.003193238147181208</v>
+        <v>-0.0239525639047086</v>
       </c>
       <c r="E53">
-        <v>-0.05849115565210198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02929746397123573</v>
+      </c>
+      <c r="F53">
+        <v>0.04941435468409403</v>
+      </c>
+      <c r="G53">
+        <v>0.001106188942061146</v>
+      </c>
+      <c r="H53">
+        <v>0.01194532495947975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01008428869786924</v>
+        <v>0.009367052336378617</v>
       </c>
       <c r="C54">
-        <v>0.02018112312888682</v>
+        <v>-0.03840736610639706</v>
       </c>
       <c r="D54">
-        <v>-0.08836064803742495</v>
+        <v>0.07639979909621673</v>
       </c>
       <c r="E54">
-        <v>-0.01136542438829785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01755377885948216</v>
+      </c>
+      <c r="F54">
+        <v>0.002283643732079436</v>
+      </c>
+      <c r="G54">
+        <v>-0.008826580685094546</v>
+      </c>
+      <c r="H54">
+        <v>0.08207403972616835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09315040594468087</v>
+        <v>0.04017322702320139</v>
       </c>
       <c r="C55">
-        <v>0.107896005393237</v>
+        <v>-0.1316881413296343</v>
       </c>
       <c r="D55">
-        <v>-0.005618177621870656</v>
+        <v>-0.03348628640672015</v>
       </c>
       <c r="E55">
-        <v>-0.008333492599040031</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.005455733207414082</v>
+      </c>
+      <c r="F55">
+        <v>0.01149503887300392</v>
+      </c>
+      <c r="G55">
+        <v>-0.002405552336619564</v>
+      </c>
+      <c r="H55">
+        <v>0.01619573965063549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1315497387850839</v>
+        <v>0.05530459431825494</v>
       </c>
       <c r="C56">
-        <v>0.1464677940876464</v>
+        <v>-0.1914437178011132</v>
       </c>
       <c r="D56">
-        <v>-0.001714151616409712</v>
+        <v>-0.03387978793642411</v>
       </c>
       <c r="E56">
-        <v>-0.005995067211126931</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03056984893239589</v>
+      </c>
+      <c r="F56">
+        <v>0.0147000925048985</v>
+      </c>
+      <c r="G56">
+        <v>-0.04865347605928522</v>
+      </c>
+      <c r="H56">
+        <v>0.01528742783960575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006689038126303043</v>
+        <v>0.004004523697614898</v>
       </c>
       <c r="C58">
-        <v>0.009975512815565567</v>
+        <v>-0.05774651029328264</v>
       </c>
       <c r="D58">
-        <v>-0.211702636787817</v>
+        <v>0.2847564968085767</v>
       </c>
       <c r="E58">
-        <v>-0.1028716145566903</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01852341812158388</v>
+      </c>
+      <c r="F58">
+        <v>0.1122257721643645</v>
+      </c>
+      <c r="G58">
+        <v>-0.1542796510305933</v>
+      </c>
+      <c r="H58">
+        <v>-0.09365576804561082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1845102536291829</v>
+        <v>0.2541363970615518</v>
       </c>
       <c r="C59">
-        <v>-0.1435430023783298</v>
+        <v>0.0581752461605503</v>
       </c>
       <c r="D59">
-        <v>-0.04224784415595259</v>
+        <v>0.05725396671995191</v>
       </c>
       <c r="E59">
-        <v>-0.03806261881804648</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02046575639079653</v>
+      </c>
+      <c r="F59">
+        <v>0.02377962394668976</v>
+      </c>
+      <c r="G59">
+        <v>-0.00749567246274861</v>
+      </c>
+      <c r="H59">
+        <v>0.003604308029099703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1816112405988342</v>
+        <v>0.1475379913558314</v>
       </c>
       <c r="C60">
-        <v>0.1056603695433347</v>
+        <v>-0.175058726241442</v>
       </c>
       <c r="D60">
-        <v>-0.2316327378841661</v>
+        <v>0.0949836424458235</v>
       </c>
       <c r="E60">
-        <v>0.1166925749024568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1613011184952055</v>
+      </c>
+      <c r="F60">
+        <v>-0.22184127717517</v>
+      </c>
+      <c r="G60">
+        <v>0.2199093458609892</v>
+      </c>
+      <c r="H60">
+        <v>-0.2368497206639448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02580013147169424</v>
+        <v>0.01106380812998324</v>
       </c>
       <c r="C61">
-        <v>0.05353566325492623</v>
+        <v>-0.07503062124143953</v>
       </c>
       <c r="D61">
-        <v>-0.09208743149884657</v>
+        <v>0.07209409527306576</v>
       </c>
       <c r="E61">
-        <v>0.001111054448766635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03789312899930324</v>
+      </c>
+      <c r="F61">
+        <v>-0.01468963489622722</v>
+      </c>
+      <c r="G61">
+        <v>0.03679587153329236</v>
+      </c>
+      <c r="H61">
+        <v>0.08523233813952637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006482746045964276</v>
+        <v>0.008706960956076435</v>
       </c>
       <c r="C63">
-        <v>0.02345141619871412</v>
+        <v>-0.03750459254264579</v>
       </c>
       <c r="D63">
-        <v>-0.09674060511950165</v>
+        <v>0.06841424493165725</v>
       </c>
       <c r="E63">
-        <v>-0.02653269577280152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05877654490232966</v>
+      </c>
+      <c r="F63">
+        <v>0.02669141220769821</v>
+      </c>
+      <c r="G63">
+        <v>0.00803857348434044</v>
+      </c>
+      <c r="H63">
+        <v>0.07111720904349611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05426432377115201</v>
+        <v>0.01499058847937692</v>
       </c>
       <c r="C64">
-        <v>0.08628373615005093</v>
+        <v>-0.1055300544818338</v>
       </c>
       <c r="D64">
-        <v>-0.01622119568822651</v>
+        <v>0.005374556227243941</v>
       </c>
       <c r="E64">
-        <v>-0.007435050595830397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02400624488573391</v>
+      </c>
+      <c r="F64">
+        <v>0.01076941959295346</v>
+      </c>
+      <c r="G64">
+        <v>0.04795895874301736</v>
+      </c>
+      <c r="H64">
+        <v>0.06643250588149205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02528672431976984</v>
+        <v>0.02036073940883437</v>
       </c>
       <c r="C65">
-        <v>0.01593094429160504</v>
+        <v>-0.04484973852729302</v>
       </c>
       <c r="D65">
-        <v>-0.1093316242189834</v>
+        <v>0.1135835795073678</v>
       </c>
       <c r="E65">
-        <v>-0.01675804093019722</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04368936963235565</v>
+      </c>
+      <c r="F65">
+        <v>-0.006984781646467214</v>
+      </c>
+      <c r="G65">
+        <v>0.02910297113303248</v>
+      </c>
+      <c r="H65">
+        <v>0.0134219314993032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02012661076914018</v>
+        <v>0.0001430349553389076</v>
       </c>
       <c r="C66">
-        <v>0.06738197578190525</v>
+        <v>-0.09687555508158226</v>
       </c>
       <c r="D66">
-        <v>-0.1206370933777471</v>
+        <v>0.1160388351868876</v>
       </c>
       <c r="E66">
-        <v>0.00804061201234448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04159071640368792</v>
+      </c>
+      <c r="F66">
+        <v>-0.01157853451715876</v>
+      </c>
+      <c r="G66">
+        <v>-0.003975578501886464</v>
+      </c>
+      <c r="H66">
+        <v>0.06653118962917556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02393424909592761</v>
+        <v>0.02110431723615674</v>
       </c>
       <c r="C67">
-        <v>0.02037702779364878</v>
+        <v>-0.03642894905293874</v>
       </c>
       <c r="D67">
-        <v>-0.04611718959072363</v>
+        <v>0.04096835313932457</v>
       </c>
       <c r="E67">
-        <v>0.01790734218271673</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01185851908301149</v>
+      </c>
+      <c r="F67">
+        <v>-0.02736521025212077</v>
+      </c>
+      <c r="G67">
+        <v>-0.002515728366427476</v>
+      </c>
+      <c r="H67">
+        <v>0.06888155020673875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2072733727444015</v>
+        <v>0.2752356174743471</v>
       </c>
       <c r="C68">
-        <v>-0.1529614542614266</v>
+        <v>0.0650465426239672</v>
       </c>
       <c r="D68">
-        <v>-0.03318802609073845</v>
+        <v>0.02879978214528978</v>
       </c>
       <c r="E68">
-        <v>-0.0154498840884483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003931475108243525</v>
+      </c>
+      <c r="F68">
+        <v>0.02743671358399767</v>
+      </c>
+      <c r="G68">
+        <v>-0.06977024360717292</v>
+      </c>
+      <c r="H68">
+        <v>-0.04527032810158032</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05282558560119208</v>
+        <v>0.01572605993286627</v>
       </c>
       <c r="C69">
-        <v>0.1171851228128128</v>
+        <v>-0.1179340978707044</v>
       </c>
       <c r="D69">
-        <v>-0.07709337511763786</v>
+        <v>0.02762633240364138</v>
       </c>
       <c r="E69">
-        <v>-0.0205493710726034</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.008711093901229509</v>
+      </c>
+      <c r="F69">
+        <v>-0.007978710562430665</v>
+      </c>
+      <c r="G69">
+        <v>0.02618405263558339</v>
+      </c>
+      <c r="H69">
+        <v>0.04522748331509036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2173149451577836</v>
+        <v>0.2764546430457706</v>
       </c>
       <c r="C71">
-        <v>-0.1762989000990027</v>
+        <v>0.07810433917939164</v>
       </c>
       <c r="D71">
-        <v>-0.01685379536593773</v>
+        <v>0.01762264064589232</v>
       </c>
       <c r="E71">
-        <v>-0.01372876624590836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001442244461893355</v>
+      </c>
+      <c r="F71">
+        <v>0.02137934100496956</v>
+      </c>
+      <c r="G71">
+        <v>-0.03846600002451758</v>
+      </c>
+      <c r="H71">
+        <v>0.01978147057647366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09957352479957077</v>
+        <v>0.05388047196858785</v>
       </c>
       <c r="C72">
-        <v>0.0793097480095374</v>
+        <v>-0.1279442010560903</v>
       </c>
       <c r="D72">
-        <v>-0.1142832934653519</v>
+        <v>0.05759196877901603</v>
       </c>
       <c r="E72">
-        <v>0.0262756034503296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06883396289602124</v>
+      </c>
+      <c r="F72">
+        <v>-0.0252467831961722</v>
+      </c>
+      <c r="G72">
+        <v>0.04118931678699136</v>
+      </c>
+      <c r="H72">
+        <v>0.04824457747033944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1702118803401373</v>
+        <v>0.1373505075348147</v>
       </c>
       <c r="C73">
-        <v>0.07246313356732612</v>
+        <v>-0.1512282233070303</v>
       </c>
       <c r="D73">
-        <v>-0.2990530448814531</v>
+        <v>0.1007600021346792</v>
       </c>
       <c r="E73">
-        <v>0.1852828070676417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2835865333091207</v>
+      </c>
+      <c r="F73">
+        <v>-0.311276580532432</v>
+      </c>
+      <c r="G73">
+        <v>0.3893930476262756</v>
+      </c>
+      <c r="H73">
+        <v>-0.1793429109257949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1052852193370897</v>
+        <v>0.04810267496724673</v>
       </c>
       <c r="C74">
-        <v>0.1168058919223043</v>
+        <v>-0.1443566119294276</v>
       </c>
       <c r="D74">
-        <v>0.01748596207260647</v>
+        <v>-0.04197046810123354</v>
       </c>
       <c r="E74">
-        <v>-0.03972528587554384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01114626461100279</v>
+      </c>
+      <c r="F74">
+        <v>0.03540276908843155</v>
+      </c>
+      <c r="G74">
+        <v>0.007903455568880169</v>
+      </c>
+      <c r="H74">
+        <v>-0.01076363668916405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2280352217453756</v>
+        <v>0.102551620825443</v>
       </c>
       <c r="C75">
-        <v>0.2038331624820056</v>
+        <v>-0.2680855219849739</v>
       </c>
       <c r="D75">
-        <v>0.1028873246654588</v>
+        <v>-0.1350050743463722</v>
       </c>
       <c r="E75">
-        <v>0.04430120678776286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09210923304730162</v>
+      </c>
+      <c r="F75">
+        <v>-0.02692337099285633</v>
+      </c>
+      <c r="G75">
+        <v>-0.1005619615369373</v>
+      </c>
+      <c r="H75">
+        <v>0.02602213840137835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1370946417041566</v>
+        <v>0.05874700656926384</v>
       </c>
       <c r="C76">
-        <v>0.1418107123636882</v>
+        <v>-0.1825402920181381</v>
       </c>
       <c r="D76">
-        <v>-0.006952743269269924</v>
+        <v>-0.04447135818697977</v>
       </c>
       <c r="E76">
-        <v>-0.005258988219840621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02282671407209371</v>
+      </c>
+      <c r="F76">
+        <v>0.00169103709167559</v>
+      </c>
+      <c r="G76">
+        <v>-0.03554275789815745</v>
+      </c>
+      <c r="H76">
+        <v>0.03597382476833874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02039377045267891</v>
+        <v>0.0002936683325498775</v>
       </c>
       <c r="C77">
-        <v>0.06869769926350831</v>
+        <v>-0.1079724708819563</v>
       </c>
       <c r="D77">
-        <v>0.05106255070796994</v>
+        <v>0.3187623466954481</v>
       </c>
       <c r="E77">
-        <v>-0.1630471187734758</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8427223140098073</v>
+      </c>
+      <c r="F77">
+        <v>-0.2146341494302006</v>
+      </c>
+      <c r="G77">
+        <v>0.2008155603763458</v>
+      </c>
+      <c r="H77">
+        <v>-0.1472675117979304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02699082368562388</v>
+        <v>0.0152368579699173</v>
       </c>
       <c r="C78">
-        <v>0.07105447917701023</v>
+        <v>-0.09343579522954229</v>
       </c>
       <c r="D78">
-        <v>-0.1432623768319949</v>
+        <v>0.1123467726282071</v>
       </c>
       <c r="E78">
-        <v>-0.0543374961538276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0679120093396078</v>
+      </c>
+      <c r="F78">
+        <v>0.04592575728589561</v>
+      </c>
+      <c r="G78">
+        <v>-0.0370104092090074</v>
+      </c>
+      <c r="H78">
+        <v>0.04269263283234552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09435503015523021</v>
+        <v>0.03398371122171406</v>
       </c>
       <c r="C79">
-        <v>0.1801204266531335</v>
+        <v>-0.1959530852315769</v>
       </c>
       <c r="D79">
-        <v>0.1792626334843712</v>
+        <v>-0.08637901497570113</v>
       </c>
       <c r="E79">
-        <v>-0.825443480462507</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05241573067584333</v>
+      </c>
+      <c r="F79">
+        <v>0.7771531794427512</v>
+      </c>
+      <c r="G79">
+        <v>0.3733348064832776</v>
+      </c>
+      <c r="H79">
+        <v>-0.3306858250875598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003594972665353542</v>
+        <v>0.00405298461402227</v>
       </c>
       <c r="C80">
-        <v>0.04453606629231166</v>
+        <v>-0.04562249351439291</v>
       </c>
       <c r="D80">
-        <v>-0.05174987593345771</v>
+        <v>0.04010074897266191</v>
       </c>
       <c r="E80">
-        <v>0.003910076127272721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.046431004262384</v>
+      </c>
+      <c r="F80">
+        <v>0.004432431502757268</v>
+      </c>
+      <c r="G80">
+        <v>-0.006563946144196098</v>
+      </c>
+      <c r="H80">
+        <v>0.02870564748599072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1169131885929723</v>
+        <v>0.04186767040762935</v>
       </c>
       <c r="C81">
-        <v>0.1369545390906465</v>
+        <v>-0.1664993516175133</v>
       </c>
       <c r="D81">
-        <v>0.07786780619232657</v>
+        <v>-0.08241064172880823</v>
       </c>
       <c r="E81">
-        <v>-0.04259883727724025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04866252792253885</v>
+      </c>
+      <c r="F81">
+        <v>0.06337536592405027</v>
+      </c>
+      <c r="G81">
+        <v>-0.04805809985063927</v>
+      </c>
+      <c r="H81">
+        <v>0.07589926904975243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2454071899075362</v>
+        <v>0.0864919945086718</v>
       </c>
       <c r="C82">
-        <v>0.3012139291118955</v>
+        <v>-0.3187152488264887</v>
       </c>
       <c r="D82">
-        <v>0.1995206446817297</v>
+        <v>-0.2463003366672732</v>
       </c>
       <c r="E82">
-        <v>0.1754873329410917</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06365133895786027</v>
+      </c>
+      <c r="F82">
+        <v>-0.1121547567698816</v>
+      </c>
+      <c r="G82">
+        <v>-0.1018300693731086</v>
+      </c>
+      <c r="H82">
+        <v>0.1062661589168657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.009507511566912361</v>
+        <v>-0.01324185501365152</v>
       </c>
       <c r="C83">
-        <v>0.05092166712237237</v>
+        <v>-0.02666695963130026</v>
       </c>
       <c r="D83">
-        <v>0.005855217664492567</v>
+        <v>0.03148596216105415</v>
       </c>
       <c r="E83">
-        <v>-0.05278728593197072</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07902876753190174</v>
+      </c>
+      <c r="F83">
+        <v>0.07465833712686379</v>
+      </c>
+      <c r="G83">
+        <v>-0.02845058550864506</v>
+      </c>
+      <c r="H83">
+        <v>0.1094617676338453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001411811124157525</v>
+        <v>-0.002419727752501693</v>
       </c>
       <c r="C84">
-        <v>0.0003475721246927447</v>
+        <v>-0.01725971560582764</v>
       </c>
       <c r="D84">
-        <v>-0.01038911518007797</v>
+        <v>0.04298784280884024</v>
       </c>
       <c r="E84">
-        <v>0.0005066069192582635</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.001244440107647613</v>
+      </c>
+      <c r="F84">
+        <v>0.03405494263899303</v>
+      </c>
+      <c r="G84">
+        <v>-0.04842083277449409</v>
+      </c>
+      <c r="H84">
+        <v>0.03407816555174317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1376539399544065</v>
+        <v>0.0547476171247217</v>
       </c>
       <c r="C85">
-        <v>0.1417807226548792</v>
+        <v>-0.1830958855305567</v>
       </c>
       <c r="D85">
-        <v>0.04622422788294293</v>
+        <v>-0.09922642278971926</v>
       </c>
       <c r="E85">
-        <v>-0.02286456446012576</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0004531154598691754</v>
+      </c>
+      <c r="F85">
+        <v>0.07261763387186863</v>
+      </c>
+      <c r="G85">
+        <v>-0.02216488942858538</v>
+      </c>
+      <c r="H85">
+        <v>-0.003118136898272914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01627455965289405</v>
+        <v>0.01194149305657114</v>
       </c>
       <c r="C86">
-        <v>0.01435421312263074</v>
+        <v>-0.03595266124948822</v>
       </c>
       <c r="D86">
-        <v>-0.08959704798485263</v>
+        <v>0.1094122636474747</v>
       </c>
       <c r="E86">
-        <v>-0.05713770379713594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01496296913942689</v>
+      </c>
+      <c r="F86">
+        <v>0.001497516215649035</v>
+      </c>
+      <c r="G86">
+        <v>0.0206800119952352</v>
+      </c>
+      <c r="H86">
+        <v>0.03074376174937572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02018836014732058</v>
+        <v>0.01243203709682834</v>
       </c>
       <c r="C87">
-        <v>0.02760654872397883</v>
+        <v>-0.06102494883481033</v>
       </c>
       <c r="D87">
-        <v>-0.1284255530601951</v>
+        <v>0.1410176736746618</v>
       </c>
       <c r="E87">
-        <v>-0.06123650786687485</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01405299530050944</v>
+      </c>
+      <c r="F87">
+        <v>0.04300947457579886</v>
+      </c>
+      <c r="G87">
+        <v>-0.04550375392579176</v>
+      </c>
+      <c r="H87">
+        <v>0.05737240457384917</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05145125451453854</v>
+        <v>0.03185744946236543</v>
       </c>
       <c r="C88">
-        <v>0.04453843244169595</v>
+        <v>-0.0684035713574912</v>
       </c>
       <c r="D88">
-        <v>-0.02247379483473412</v>
+        <v>0.01523827167844048</v>
       </c>
       <c r="E88">
-        <v>-0.03136317560046713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02803761020256311</v>
+      </c>
+      <c r="F88">
+        <v>0.0200803371402324</v>
+      </c>
+      <c r="G88">
+        <v>0.01339349156722176</v>
+      </c>
+      <c r="H88">
+        <v>0.01280969201407998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3273853931896601</v>
+        <v>0.4089809107000181</v>
       </c>
       <c r="C89">
-        <v>-0.3198408727902554</v>
+        <v>0.1480356870329185</v>
       </c>
       <c r="D89">
-        <v>-0.005574328736070727</v>
+        <v>0.03446673774910907</v>
       </c>
       <c r="E89">
-        <v>-0.09880877681238008</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05458183975488914</v>
+      </c>
+      <c r="F89">
+        <v>0.06862987759534574</v>
+      </c>
+      <c r="G89">
+        <v>-0.00999733028327481</v>
+      </c>
+      <c r="H89">
+        <v>0.1244982801837029</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2598487185311011</v>
+        <v>0.3223598803083684</v>
       </c>
       <c r="C90">
-        <v>-0.233016355141403</v>
+        <v>0.1005690239532332</v>
       </c>
       <c r="D90">
-        <v>-0.03827465204799133</v>
+        <v>0.03363645019935238</v>
       </c>
       <c r="E90">
-        <v>0.01175098538668455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.009730884127458981</v>
+      </c>
+      <c r="F90">
+        <v>-0.00601175804386846</v>
+      </c>
+      <c r="G90">
+        <v>-0.06549851716323993</v>
+      </c>
+      <c r="H90">
+        <v>-0.006144216259476246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1502266867727056</v>
+        <v>0.06402679018429447</v>
       </c>
       <c r="C91">
-        <v>0.1880030521622579</v>
+        <v>-0.2059863141794838</v>
       </c>
       <c r="D91">
-        <v>0.1001778105346376</v>
+        <v>-0.1088016587595667</v>
       </c>
       <c r="E91">
-        <v>-0.07534467935661632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05791549701157424</v>
+      </c>
+      <c r="F91">
+        <v>0.06755723138378061</v>
+      </c>
+      <c r="G91">
+        <v>-0.005647637847258745</v>
+      </c>
+      <c r="H91">
+        <v>-0.007111808585431529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2464668024487948</v>
+        <v>0.3400411786930222</v>
       </c>
       <c r="C92">
-        <v>-0.25640712209083</v>
+        <v>0.1367104193595278</v>
       </c>
       <c r="D92">
-        <v>0.06693881361191356</v>
+        <v>0.003009871733191452</v>
       </c>
       <c r="E92">
-        <v>-0.0302915977823932</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06308156114953854</v>
+      </c>
+      <c r="F92">
+        <v>0.03019749184479114</v>
+      </c>
+      <c r="G92">
+        <v>-0.03155469604239545</v>
+      </c>
+      <c r="H92">
+        <v>0.01200508737825352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2870528797626898</v>
+        <v>0.3355698400924148</v>
       </c>
       <c r="C93">
-        <v>-0.244454481088981</v>
+        <v>0.1098577869026119</v>
       </c>
       <c r="D93">
-        <v>-0.01092859390130315</v>
+        <v>-0.01802055462708506</v>
       </c>
       <c r="E93">
-        <v>-0.001311096213229571</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02706557500746947</v>
+      </c>
+      <c r="F93">
+        <v>0.006666671867723893</v>
+      </c>
+      <c r="G93">
+        <v>0.01075665511850618</v>
+      </c>
+      <c r="H93">
+        <v>-0.00779483186294916</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2848373197908552</v>
+        <v>0.1218859639603376</v>
       </c>
       <c r="C94">
-        <v>0.2786021003386231</v>
+        <v>-0.3472327789834496</v>
       </c>
       <c r="D94">
-        <v>0.3125488546116346</v>
+        <v>-0.3561577768416372</v>
       </c>
       <c r="E94">
-        <v>0.2460992733320255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05717474933216597</v>
+      </c>
+      <c r="F94">
+        <v>-0.1081171997653173</v>
+      </c>
+      <c r="G94">
+        <v>-0.3250340403849036</v>
+      </c>
+      <c r="H94">
+        <v>-0.02994196305325353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01339554854761158</v>
+        <v>0.01526108726946128</v>
       </c>
       <c r="C95">
-        <v>0.04052513223281222</v>
+        <v>-0.06433150189154012</v>
       </c>
       <c r="D95">
-        <v>0.02527593042777596</v>
+        <v>0.08830651146402974</v>
       </c>
       <c r="E95">
-        <v>-0.05213918452536397</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1637546096820111</v>
+      </c>
+      <c r="F95">
+        <v>-0.02407536545468661</v>
+      </c>
+      <c r="G95">
+        <v>0.08178524338072406</v>
+      </c>
+      <c r="H95">
+        <v>0.308956064111647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001137744641806004</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008648259257940407</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006451061743849411</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003654123586148189</v>
+      </c>
+      <c r="F97">
+        <v>0.0005540717047080675</v>
+      </c>
+      <c r="G97">
+        <v>-0.00104702804469088</v>
+      </c>
+      <c r="H97">
+        <v>0.004244772191065238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1440913705290142</v>
+        <v>0.1161341640261827</v>
       </c>
       <c r="C98">
-        <v>0.09223367130244557</v>
+        <v>-0.1560912921442279</v>
       </c>
       <c r="D98">
-        <v>-0.1792358302962143</v>
+        <v>0.06276671838820193</v>
       </c>
       <c r="E98">
-        <v>0.1607678189655141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.19960392923561</v>
+      </c>
+      <c r="F98">
+        <v>-0.2484575775840418</v>
+      </c>
+      <c r="G98">
+        <v>0.2786586958674218</v>
+      </c>
+      <c r="H98">
+        <v>-0.192991669457613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001220807967129314</v>
+        <v>0.0009390531363170417</v>
       </c>
       <c r="C101">
-        <v>0.01925527081315821</v>
+        <v>-0.03731118670323644</v>
       </c>
       <c r="D101">
-        <v>-0.09471207535702068</v>
+        <v>0.1033665129486968</v>
       </c>
       <c r="E101">
-        <v>-0.03077545949670922</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05846641035025506</v>
+      </c>
+      <c r="F101">
+        <v>0.04282822215818306</v>
+      </c>
+      <c r="G101">
+        <v>0.01543687869317208</v>
+      </c>
+      <c r="H101">
+        <v>0.1454188147776889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1019026633761756</v>
+        <v>0.02658364156110151</v>
       </c>
       <c r="C102">
-        <v>0.1614190828721137</v>
+        <v>-0.1471666400016194</v>
       </c>
       <c r="D102">
-        <v>0.0622293789947413</v>
+        <v>-0.1011926399885134</v>
       </c>
       <c r="E102">
-        <v>0.06655325889977735</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03654023765428704</v>
+      </c>
+      <c r="F102">
+        <v>-0.06689101919386009</v>
+      </c>
+      <c r="G102">
+        <v>0.002993769880044982</v>
+      </c>
+      <c r="H102">
+        <v>0.0406659165143345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
